--- a/01 预演/02 特性列表/新手村（NoviceVillage）特性列表1.0.0.xlsx
+++ b/01 预演/02 特性列表/新手村（NoviceVillage）特性列表1.0.0.xlsx
@@ -7,14 +7,14 @@
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="特新列表" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="42">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -92,33 +92,93 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>按周、月统计积分情况，进行发榜。</t>
+  </si>
+  <si>
+    <t>可以时时了解每个人的工作状态，及时的安排工作任务。</t>
+  </si>
+  <si>
+    <t>知识大厅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在线视频</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源整合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>知识分享</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公司培训视频、录屏的分享，支持在线观看</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一般</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每个月发布2-4篇和公司产品相关的技术分享或开发心得</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提供公司的培训素材以及优质的学习材料的下载</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>考核大厅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>知识考核</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>述职报告</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阶段性的进行总结，定期发送述职报告</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公司培训之后进行知识考核</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>个人中心</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工作状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>知识分享</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>允许手动修改工作状态，申请修改工作时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>个人知识分享空间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接受任务，获得相应的积分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>每个人都可以发布答疑任务寻求帮助（类似于百度知道）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>按周、月统计积分情况，进行发榜。</t>
-  </si>
-  <si>
-    <t>可以时时了解每个人的工作状态，及时的安排工作任务。</t>
-  </si>
-  <si>
-    <t>知识大厅</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>接受任务，活的相应的积分</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>在线视频</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>资源整合</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>知识分享</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -156,7 +216,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -164,22 +224,42 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -487,14 +567,17 @@
   <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="5.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="13" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="61.25" customWidth="1"/>
+    <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.375" customWidth="1"/>
+    <col min="4" max="4" width="11.875" customWidth="1"/>
+    <col min="5" max="5" width="12" customWidth="1"/>
+    <col min="6" max="6" width="65.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
@@ -505,197 +588,296 @@
       <c r="E1" s="1"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A3" s="1">
+      <c r="A3" s="3">
         <v>1</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="5" t="s">
         <v>17</v>
       </c>
+      <c r="G3" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H3" s="3"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A4" s="1">
+      <c r="A4" s="3">
         <v>2</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" t="s">
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H4" s="3"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A5" s="3">
+        <v>3</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H5" s="3"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A6" s="3">
+        <v>4</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H6" s="3"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A7" s="3">
+        <v>5</v>
+      </c>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H7" s="3"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A8" s="3">
+        <v>6</v>
+      </c>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="3"/>
+      <c r="F8" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H8" s="3"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A9" s="3">
+        <v>7</v>
+      </c>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="3"/>
+      <c r="F9" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H9" s="3"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A10" s="3">
+        <v>8</v>
+      </c>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10" s="3"/>
+      <c r="F10" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H10" s="3"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A11" s="3">
+        <v>9</v>
+      </c>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" s="3"/>
+      <c r="F11" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H11" s="3"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A12" s="3">
+        <v>10</v>
+      </c>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="3" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2" t="s">
+      <c r="E12" s="3"/>
+      <c r="F12" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H12" s="3"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A13" s="3">
+        <v>11</v>
+      </c>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E13" s="3"/>
+      <c r="F13" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H13" s="3"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A14" s="3">
         <v>12</v>
       </c>
-      <c r="F5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="1" t="s">
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E14" s="3"/>
+      <c r="F14" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H14" s="3"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A15" s="3">
+        <v>13</v>
+      </c>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E15" s="3"/>
+      <c r="F15" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H15" s="3"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A16" s="3">
         <v>14</v>
       </c>
-      <c r="F7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A8" s="1">
-        <v>6</v>
-      </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" s="1"/>
-      <c r="F8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9" s="1"/>
-      <c r="F9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A10" s="1">
-        <v>8</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E10" s="1"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1" t="s">
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E16" s="3"/>
+      <c r="F16" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G16" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E11" s="1"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E12" s="1"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
+      <c r="H16" s="3"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A17" s="1"/>
@@ -754,12 +936,15 @@
       <c r="E24" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="8">
+    <mergeCell ref="C10:C12"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="B6:B16"/>
+    <mergeCell ref="C15:C16"/>
     <mergeCell ref="C3:C9"/>
     <mergeCell ref="D3:D7"/>
     <mergeCell ref="E3:E4"/>
     <mergeCell ref="E5:E6"/>
-    <mergeCell ref="B6:B9"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
